--- a/assets/docs/Trimestre II/03_Requisitos/Historias de Usuario 3 trimestre CANCHEROS.xlsx
+++ b/assets/docs/Trimestre II/03_Requisitos/Historias de Usuario 3 trimestre CANCHEROS.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMBTAFUR\Desktop\PROYECTO CANCHEROS\CANCHEROS\assets\docs\Trimestre II\03_Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE466A3-4E86-4F9F-9E1C-EB00B68E7DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3306EE0-176D-427C-81F2-59FB0751897F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lla de historia de usuario ágil" sheetId="1" r:id="rId1"/>
     <sheet name="- Descargo de responsabilidad -" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'lla de historia de usuario ágil'!$B$2:$E$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'lla de historia de usuario ágil'!$B$1:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>ID DE HISTORIA DE USUARIO</t>
   </si>
@@ -41,9 +42,6 @@
     <t>Quiero  &lt;REQUERIMIENTO&gt;</t>
   </si>
   <si>
-    <t>ADMINISTRADOR DELA CANCHA</t>
-  </si>
-  <si>
     <t xml:space="preserve">para que pueda  OBJETIVO O BENEFICIO </t>
   </si>
   <si>
@@ -141,6 +139,96 @@
   </si>
   <si>
     <t xml:space="preserve">tener la opcion de cancelar por algun imprevisto </t>
+  </si>
+  <si>
+    <t>Ver un calendario con la disponibilidad de las canchas</t>
+  </si>
+  <si>
+    <t>Seleccionar fechas y horarios que se ajusten as u planificación</t>
+  </si>
+  <si>
+    <t>Establecer limites de tiempo para las reservas</t>
+  </si>
+  <si>
+    <t>poder evitar que se realicen reservas que interfieran con otros eventos</t>
+  </si>
+  <si>
+    <t>recibir una confirmación de la reserva en la interfaz del sistema</t>
+  </si>
+  <si>
+    <t>Estar al tanto de la reserva y prepararse adecuadamente</t>
+  </si>
+  <si>
+    <t>Permitir a los usuarios realizar reservas recurrentes</t>
+  </si>
+  <si>
+    <t>Facilitar la planificación a largo plazo para eventos o actividades regulares</t>
+  </si>
+  <si>
+    <t>Establecer diferentes niveles de acceso y permisos para los administradores del sistema</t>
+  </si>
+  <si>
+    <t>Controlar que funciones estan disponibles para cada tipo de usuario</t>
+  </si>
+  <si>
+    <t>Establecer restricciones de horario para las reservas (por ejemplo, no se puede reservar antes de las 8:00 A.M)</t>
+  </si>
+  <si>
+    <t>Gestionar las reservas de manera mas organizada y evitar conflictos con horarios no disponibles</t>
+  </si>
+  <si>
+    <t>Recibir una confirmación de cancelación de reserva en la interfaz del sistema</t>
+  </si>
+  <si>
+    <t>Seguridad de que la cancelacion haya sido procesada correctamente</t>
+  </si>
+  <si>
+    <t>Asignar un codigo o referencia a cada reserva para facilitar su seguimiento</t>
+  </si>
+  <si>
+    <t>Tener un sistema de referncia claro para cada reserva y evitar confuciones</t>
+  </si>
+  <si>
+    <t>Tener un boton de whatsapp de atención al cliente</t>
+  </si>
+  <si>
+    <t>Poder hacer preguntas a los administradores, confirmar las reservas, estado de la cancha, e.t.c…</t>
+  </si>
+  <si>
+    <t>Tener la posibilidad de ver las redes sociales y seguirlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un boton de direccion de las canchas </t>
+  </si>
+  <si>
+    <t>Digirir a la plataforma de google maps y poder visualizar la ubicación de las canchas</t>
+  </si>
+  <si>
+    <t>Poder editar o cancelar reservas directamente desde el panel de administración</t>
+  </si>
+  <si>
+    <t>Gestionar cambios y resolver problemas de manera eficiente</t>
+  </si>
+  <si>
+    <t>Tener unos botones que direccionen a las redes sociales</t>
+  </si>
+  <si>
+    <t>Opcion de valorar, hacer sugerencias, comentar</t>
+  </si>
+  <si>
+    <t>Comunicar Detalles especificos sobre la reserva que podrian ser importantes para la administración</t>
+  </si>
+  <si>
+    <t>Tener la opcion de elegir si se lleva el arbitraje</t>
+  </si>
+  <si>
+    <t>Para poder tener en cuenta el uso del espacio</t>
+  </si>
+  <si>
+    <t>Al iniciar Sesión, en el menú principal aparezca el usuario en la parte superior derecha</t>
+  </si>
+  <si>
+    <t>Visualizar y saber con que usuario se esta ingresando a la plataforma</t>
   </si>
 </sst>
 </file>
@@ -684,28 +772,28 @@
   </sheetPr>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
-    <col min="4" max="5" width="48.69921875" customWidth="1"/>
-    <col min="6" max="6" width="3.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.9140625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="5" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -716,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -727,18 +815,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -749,18 +837,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -771,18 +859,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -793,18 +881,18 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -815,18 +903,18 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -837,18 +925,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -859,18 +947,18 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -881,18 +969,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -903,18 +991,18 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -925,18 +1013,18 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -947,18 +1035,18 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -969,32 +1057,32 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1005,18 +1093,18 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1027,18 +1115,18 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1049,11 +1137,19 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1063,11 +1159,19 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1077,11 +1181,19 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1091,11 +1203,19 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="21" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="12">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1105,11 +1225,19 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+    <row r="22" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1119,11 +1247,19 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="12">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1133,11 +1269,19 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="12">
+        <v>22</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1147,11 +1291,19 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="12">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1161,11 +1313,19 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+    <row r="26" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="12">
+        <v>24</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1175,11 +1335,19 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="12">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1189,11 +1357,19 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+    <row r="28" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="12">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1203,11 +1379,19 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+    <row r="29" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1217,11 +1401,19 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+    <row r="30" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="12">
+        <v>28</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1231,11 +1423,19 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+    <row r="31" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="12">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1245,11 +1445,19 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+    <row r="32" spans="2:13" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1259,7 +1467,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1273,7 +1481,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1287,7 +1495,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1301,7 +1509,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1315,7 +1523,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1329,7 +1537,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1343,7 +1551,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1357,7 +1565,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1371,7 +1579,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1385,7 +1593,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1399,7 +1607,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1413,7 +1621,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1427,7 +1635,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1441,7 +1649,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1455,7 +1663,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1469,7 +1677,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1483,7 +1691,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1497,7 +1705,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1511,7 +1719,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1525,7 +1733,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1539,7 +1747,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1553,7 +1761,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1567,7 +1775,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1581,7 +1789,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1595,7 +1803,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -1607,7 +1815,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1619,24 +1827,30 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="88.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.69921875" style="2"/>
+    <col min="1" max="1" width="3.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{a76c2f31-3199-4c12-b982-c92587099853}" enabled="1" method="Privileged" siteId="{22e95ac8-1e3b-4edf-92da-03d573857579}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>